--- a/data/trans_orig/P24D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>22137</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14795</v>
+        <v>14633</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31321</v>
+        <v>31888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1074265192818087</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0717973176915033</v>
+        <v>0.07101213643413022</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1519987392468764</v>
+        <v>0.1547483867338075</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -765,19 +765,19 @@
         <v>34452</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25430</v>
+        <v>25350</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45668</v>
+        <v>45764</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2039950439401511</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1505751022858145</v>
+        <v>0.1500999628382799</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2704056236811347</v>
+        <v>0.2709782452062005</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -786,19 +786,19 @@
         <v>56589</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43819</v>
+        <v>43807</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69425</v>
+        <v>70386</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1509231483974698</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1168651379997805</v>
+        <v>0.1168334784047865</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1851593195595465</v>
+        <v>0.187722247416754</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>183927</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>174743</v>
+        <v>174176</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>191269</v>
+        <v>191431</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8925734807181913</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8480012607531237</v>
+        <v>0.8452516132661927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9282026823084968</v>
+        <v>0.9289878635658698</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>141</v>
@@ -836,19 +836,19 @@
         <v>134434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123218</v>
+        <v>123122</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>143456</v>
+        <v>143536</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7960049560598489</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7295943763188653</v>
+        <v>0.7290217547937996</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8494248977141853</v>
+        <v>0.8499000371617209</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>324</v>
@@ -857,19 +857,19 @@
         <v>318361</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>305525</v>
+        <v>304564</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>331131</v>
+        <v>331143</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8490768516025302</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8148406804404535</v>
+        <v>0.8122777525832464</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8831348620002195</v>
+        <v>0.8831665215952137</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>102670</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86071</v>
+        <v>84290</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123561</v>
+        <v>120909</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2573234852327538</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2157212982975711</v>
+        <v>0.211256277565165</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.309681865179627</v>
+        <v>0.303034776688558</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -982,19 +982,19 @@
         <v>81247</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67480</v>
+        <v>65853</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95665</v>
+        <v>95667</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3538184491878316</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2938645644504929</v>
+        <v>0.2867800016284511</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4166069126829728</v>
+        <v>0.4166155656642395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>178</v>
@@ -1003,19 +1003,19 @@
         <v>183918</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>161441</v>
+        <v>161515</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>206664</v>
+        <v>209500</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2925722071421428</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.256816229024607</v>
+        <v>0.2569351177936326</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3287563644180801</v>
+        <v>0.3332679877385127</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>296323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>275432</v>
+        <v>278084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>312922</v>
+        <v>314703</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7426765147672462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6903181348203725</v>
+        <v>0.6969652233114418</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7842787017024286</v>
+        <v>0.788743722434835</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>142</v>
@@ -1053,19 +1053,19 @@
         <v>148383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>133965</v>
+        <v>133963</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>162150</v>
+        <v>163777</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6461815508121684</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5833930873170272</v>
+        <v>0.5833844343357605</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.706135435549507</v>
+        <v>0.713219998371549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>429</v>
@@ -1074,19 +1074,19 @@
         <v>444705</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>421959</v>
+        <v>419123</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>467182</v>
+        <v>467108</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7074277928578572</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6712436355819198</v>
+        <v>0.6667320122614874</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7431837709753931</v>
+        <v>0.7430648822063673</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>106641</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88165</v>
+        <v>89072</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>125589</v>
+        <v>124222</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3136459752179809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2593063795635686</v>
+        <v>0.2619745880916852</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3693755027645824</v>
+        <v>0.3653552736108904</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -1199,19 +1199,19 @@
         <v>112676</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95179</v>
+        <v>96777</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129383</v>
+        <v>130271</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4428600903156643</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3740923872049471</v>
+        <v>0.3803732929139224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5085288383170811</v>
+        <v>0.5120164826142773</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>207</v>
@@ -1220,19 +1220,19 @@
         <v>219316</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>195004</v>
+        <v>197883</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>244049</v>
+        <v>243799</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.36895197043782</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3280508692124942</v>
+        <v>0.3328953813309605</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4105582105617344</v>
+        <v>0.4101385796510464</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>233363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>214415</v>
+        <v>215782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>251839</v>
+        <v>250932</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.686354024782019</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6306244972354176</v>
+        <v>0.6346447263891093</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7406936204364322</v>
+        <v>0.7380254119083148</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -1270,19 +1270,19 @@
         <v>141751</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125044</v>
+        <v>124156</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>159248</v>
+        <v>157650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5571399096843357</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4914711616829184</v>
+        <v>0.4879835173857227</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6259076127950527</v>
+        <v>0.6196267070860776</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>363</v>
@@ -1291,19 +1291,19 @@
         <v>375115</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>350382</v>
+        <v>350632</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>399427</v>
+        <v>396548</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.63104802956218</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5894417894382655</v>
+        <v>0.5898614203489533</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6719491307875056</v>
+        <v>0.6671046186690394</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>87571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71129</v>
+        <v>72518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102795</v>
+        <v>102668</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3747461660659069</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3043858781435344</v>
+        <v>0.3103282617610825</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4398961925851684</v>
+        <v>0.4393525059085705</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1416,19 +1416,19 @@
         <v>51856</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40378</v>
+        <v>40599</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63588</v>
+        <v>64019</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3615588356901975</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2815304731545775</v>
+        <v>0.2830694777236434</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4433594288619001</v>
+        <v>0.4463585146069584</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -1437,19 +1437,19 @@
         <v>139427</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119805</v>
+        <v>120982</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>158148</v>
+        <v>158975</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3697306425791602</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3176976331712654</v>
+        <v>0.3208188054569994</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4193760632262257</v>
+        <v>0.421568298345057</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>146110</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130886</v>
+        <v>131013</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>162552</v>
+        <v>161163</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6252538339340931</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5601038074148317</v>
+        <v>0.5606474940914296</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.695614121856466</v>
+        <v>0.6896717382389175</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>89</v>
@@ -1487,19 +1487,19 @@
         <v>91568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>79836</v>
+        <v>79405</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>103046</v>
+        <v>102825</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6384411643098025</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5566405711381001</v>
+        <v>0.5536414853930416</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7184695268454226</v>
+        <v>0.7169305222763565</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>227</v>
@@ -1508,19 +1508,19 @@
         <v>237677</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>218956</v>
+        <v>218129</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>257299</v>
+        <v>256122</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6302693574208398</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5806239367737742</v>
+        <v>0.5784317016549431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6823023668287346</v>
+        <v>0.6791811945430006</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>63165</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52316</v>
+        <v>51681</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74611</v>
+        <v>74517</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4945803024321277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4096318728224566</v>
+        <v>0.4046621944840129</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5841977722575268</v>
+        <v>0.5834637563269605</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1633,19 +1633,19 @@
         <v>12047</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6239</v>
+        <v>6083</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18150</v>
+        <v>19135</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2569285934760844</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.133066820596221</v>
+        <v>0.1297284478811161</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3870994458369351</v>
+        <v>0.4081032792394337</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -1654,19 +1654,19 @@
         <v>75212</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61270</v>
+        <v>63220</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88019</v>
+        <v>87625</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4307612165024842</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3509100189069551</v>
+        <v>0.3620809157485814</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5041099006236482</v>
+        <v>0.5018525683521781</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>64550</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53104</v>
+        <v>53198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75399</v>
+        <v>76034</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5054196975678723</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4158022277424732</v>
+        <v>0.4165362436730395</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5903681271775434</v>
+        <v>0.5953378055159873</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -1704,19 +1704,19 @@
         <v>34841</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28738</v>
+        <v>27753</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40649</v>
+        <v>40805</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7430714065239156</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6129005541630644</v>
+        <v>0.5918967207605661</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8669331794037786</v>
+        <v>0.8702715521188836</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>100</v>
@@ -1725,19 +1725,19 @@
         <v>99391</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86584</v>
+        <v>86978</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>113333</v>
+        <v>111383</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5692387834975159</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4958900993763516</v>
+        <v>0.498147431647822</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6490899810930452</v>
+        <v>0.6379190842514184</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>26152</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19281</v>
+        <v>19716</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33119</v>
+        <v>32803</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4918360118094117</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3626001633461298</v>
+        <v>0.3707981538772072</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6228589934323101</v>
+        <v>0.6169023202492124</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1850,7 +1850,7 @@
         <v>4658</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1806</v>
+        <v>1793</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>6585</v>
@@ -1859,7 +1859,7 @@
         <v>0.7074311409408639</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2742821258535353</v>
+        <v>0.2722813575296636</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>1</v>
@@ -1871,19 +1871,19 @@
         <v>30811</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23244</v>
+        <v>23764</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38554</v>
+        <v>37725</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5155933074903021</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.388962262090026</v>
+        <v>0.3976690879218739</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6451768277323755</v>
+        <v>0.6312962799605748</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>27021</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20054</v>
+        <v>20370</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33892</v>
+        <v>33457</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5081639881905883</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.37714100656769</v>
+        <v>0.3830976797507876</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6373998366538701</v>
+        <v>0.6292018461227927</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4779</v>
+        <v>4792</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2925688590591362</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7257178741464643</v>
+        <v>0.7277186424703364</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -1942,19 +1942,19 @@
         <v>28947</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21204</v>
+        <v>22033</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36514</v>
+        <v>35994</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4844066925096979</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3548231722676243</v>
+        <v>0.3687037200394253</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6110377379099742</v>
+        <v>0.6023309120781261</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>12213</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7304</v>
+        <v>7765</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16761</v>
+        <v>16426</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5760668878327467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3445169401364143</v>
+        <v>0.3662843136203518</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7906269477036671</v>
+        <v>0.7747880410246624</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2088,19 +2088,19 @@
         <v>13286</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8515</v>
+        <v>8014</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18237</v>
+        <v>18160</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5142731469386649</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.329585201215951</v>
+        <v>0.3102056561396884</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7059459182007033</v>
+        <v>0.7029430460345987</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>8987</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4439</v>
+        <v>4774</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13896</v>
+        <v>13435</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4239331121672533</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2093730522963329</v>
+        <v>0.2252119589753377</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.655483059863586</v>
+        <v>0.6337156863796483</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2159,19 +2159,19 @@
         <v>12548</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7597</v>
+        <v>7674</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17319</v>
+        <v>17820</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4857268530613351</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2940540817992968</v>
+        <v>0.2970569539654013</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6704147987840492</v>
+        <v>0.6897943438603118</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>420548</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>386621</v>
+        <v>388755</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>452178</v>
+        <v>457470</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3045625170079075</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2799921690126399</v>
+        <v>0.2815375829657055</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3274687868622447</v>
+        <v>0.3313015520276268</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>289</v>
@@ -2284,19 +2284,19 @@
         <v>298010</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>271555</v>
+        <v>268865</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>324672</v>
+        <v>327039</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.348763877845962</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3178042204807369</v>
+        <v>0.3146560323284813</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3799666579407184</v>
+        <v>0.3827367057278952</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>696</v>
@@ -2305,19 +2305,19 @@
         <v>718558</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>671490</v>
+        <v>675655</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>764122</v>
+        <v>762533</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3214590841093062</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3004022731049635</v>
+        <v>0.3022655502971323</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3418427170671687</v>
+        <v>0.3411321607454018</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>960280</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>928650</v>
+        <v>923358</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>994207</v>
+        <v>992073</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6954374829920925</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6725312131377552</v>
+        <v>0.668698447972373</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.72000783098736</v>
+        <v>0.7184624170342944</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>548</v>
@@ -2355,19 +2355,19 @@
         <v>556464</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>529802</v>
+        <v>527435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>582919</v>
+        <v>585609</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.651236122154038</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6200333420592816</v>
+        <v>0.6172632942721048</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6821957795192631</v>
+        <v>0.6853439676715187</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1486</v>
@@ -2376,19 +2376,19 @@
         <v>1516744</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1471180</v>
+        <v>1472769</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1563812</v>
+        <v>1559647</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6785409158906938</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6581572829328312</v>
+        <v>0.6588678392545981</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6995977268950364</v>
+        <v>0.6977344497028676</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>56276</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45509</v>
+        <v>45059</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70373</v>
+        <v>69464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.340765595347983</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2755702115739466</v>
+        <v>0.2728430415922911</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4261264371055175</v>
+        <v>0.4206228562764686</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -2744,19 +2744,19 @@
         <v>61601</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49134</v>
+        <v>49715</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73353</v>
+        <v>72752</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4208375495955084</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3356677826294758</v>
+        <v>0.339633296274737</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5011234585920916</v>
+        <v>0.497018462190432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -2765,19 +2765,19 @@
         <v>117877</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101766</v>
+        <v>101642</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136355</v>
+        <v>135701</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3783896173500114</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3266743420518665</v>
+        <v>0.3262742376034979</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.437707067325198</v>
+        <v>0.4356080027109809</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>108869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94772</v>
+        <v>95681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>119636</v>
+        <v>120086</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.659234404652017</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5738735628944825</v>
+        <v>0.5793771437235314</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7244297884260537</v>
+        <v>0.7271569584077091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -2815,19 +2815,19 @@
         <v>84776</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73024</v>
+        <v>73625</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>97243</v>
+        <v>96662</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5791624504044915</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4988765414079084</v>
+        <v>0.5029815378095679</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6643322173705242</v>
+        <v>0.660366703725263</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>191</v>
@@ -2836,19 +2836,19 @@
         <v>193645</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>175167</v>
+        <v>175821</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>209756</v>
+        <v>209880</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6216103826499886</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.562292932674802</v>
+        <v>0.5643919972890189</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6733256579481336</v>
+        <v>0.6737257623965022</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>142427</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>124326</v>
+        <v>123403</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>161292</v>
+        <v>160887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4093741623898407</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3573474823354606</v>
+        <v>0.3546962628926865</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4636000202821541</v>
+        <v>0.462434455896146</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>130</v>
@@ -2961,19 +2961,19 @@
         <v>139936</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>123321</v>
+        <v>124568</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>155429</v>
+        <v>154911</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5630449741996176</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4961943680723787</v>
+        <v>0.5012096213272991</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6253822472124043</v>
+        <v>0.6232997575430769</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>263</v>
@@ -2982,19 +2982,19 @@
         <v>282362</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>258793</v>
+        <v>256193</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>308634</v>
+        <v>307271</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4734073524359276</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4338915418818023</v>
+        <v>0.429532045333705</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5174537738503716</v>
+        <v>0.5151689751377757</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>205486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>186621</v>
+        <v>187026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>223587</v>
+        <v>224510</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5906258376101593</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5363999797178458</v>
+        <v>0.537565544103854</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6426525176645393</v>
+        <v>0.6453037371073135</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>104</v>
@@ -3032,19 +3032,19 @@
         <v>108598</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>93105</v>
+        <v>93623</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>125213</v>
+        <v>123966</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4369550258003824</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3746177527875958</v>
+        <v>0.3767002424569234</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5038056319276213</v>
+        <v>0.4987903786727009</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>307</v>
@@ -3053,19 +3053,19 @@
         <v>314085</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>287813</v>
+        <v>289176</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>337654</v>
+        <v>340254</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5265926475640723</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4825462261496284</v>
+        <v>0.4848310248622243</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5661084581181977</v>
+        <v>0.5704679546662949</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>158026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138070</v>
+        <v>139974</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>175503</v>
+        <v>176948</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4871667886502335</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4256476886135099</v>
+        <v>0.4315175870940167</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5410456419652692</v>
+        <v>0.5454999149863338</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>121</v>
@@ -3178,19 +3178,19 @@
         <v>128287</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>111311</v>
+        <v>112946</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>143534</v>
+        <v>145826</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5167875306947676</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4484040815544631</v>
+        <v>0.4549893239244045</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5782073960293378</v>
+        <v>0.5874409808804462</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>268</v>
@@ -3199,19 +3199,19 @@
         <v>286313</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>260104</v>
+        <v>261339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>307854</v>
+        <v>310317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.500007907381729</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4542378780209011</v>
+        <v>0.4563956231208888</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.537627116355083</v>
+        <v>0.5419285275906439</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>166351</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>148874</v>
+        <v>147429</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>186307</v>
+        <v>184403</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5128332113497664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4589543580347308</v>
+        <v>0.4545000850136662</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5743523113864902</v>
+        <v>0.5684824129059833</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>113</v>
@@ -3249,19 +3249,19 @@
         <v>119952</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>104705</v>
+        <v>102413</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>136928</v>
+        <v>135293</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4832124693052324</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4217926039706622</v>
+        <v>0.4125590191195539</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5515959184455371</v>
+        <v>0.5450106760755956</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>275</v>
@@ -3270,19 +3270,19 @@
         <v>286303</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>264762</v>
+        <v>262299</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>312512</v>
+        <v>311277</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.499992092618271</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.462372883644917</v>
+        <v>0.458071472409356</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5457621219790989</v>
+        <v>0.5436043768791112</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>145894</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>128409</v>
+        <v>128858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164048</v>
+        <v>163747</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5214577678872898</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4589609362259229</v>
+        <v>0.4605639916624076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5863408210044952</v>
+        <v>0.5852679891993791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -3395,19 +3395,19 @@
         <v>131616</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>114724</v>
+        <v>114292</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>149027</v>
+        <v>147901</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5551245633240397</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4838785918644386</v>
+        <v>0.4820557308365138</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6285585705288906</v>
+        <v>0.6238118879520804</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>238</v>
@@ -3416,19 +3416,19 @@
         <v>277511</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>254587</v>
+        <v>254621</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>301821</v>
+        <v>302306</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5369008777244808</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.492550782059188</v>
+        <v>0.4926164326785785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5839342183193358</v>
+        <v>0.5848717749028604</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>133888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115734</v>
+        <v>116035</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151373</v>
+        <v>150924</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4785422321127102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4136591789955048</v>
+        <v>0.414732010800621</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.541039063774077</v>
+        <v>0.5394360083375924</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>92</v>
@@ -3466,19 +3466,19 @@
         <v>105477</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>88066</v>
+        <v>89192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>122369</v>
+        <v>122801</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4448754366759604</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3714414294711094</v>
+        <v>0.3761881120479195</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5161214081355614</v>
+        <v>0.5179442691634861</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>213</v>
@@ -3487,19 +3487,19 @@
         <v>239364</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>215054</v>
+        <v>214569</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>262288</v>
+        <v>262254</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4630991222755192</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4160657816806642</v>
+        <v>0.4151282250971395</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5074492179408109</v>
+        <v>0.5073835673214214</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>86007</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71894</v>
+        <v>72748</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98525</v>
+        <v>100237</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5500235616036711</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4597732411298207</v>
+        <v>0.4652310312637773</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6300771329929689</v>
+        <v>0.6410289550676209</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -3612,19 +3612,19 @@
         <v>26206</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18122</v>
+        <v>17933</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34786</v>
+        <v>34802</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3975458081485208</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2749153674598445</v>
+        <v>0.2720475838034588</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5276959723472628</v>
+        <v>0.5279441096072962</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -3633,19 +3633,19 @@
         <v>112213</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>96146</v>
+        <v>97235</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>128250</v>
+        <v>128166</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5048062680922821</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4325265607911384</v>
+        <v>0.4374260550655221</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5769534565057642</v>
+        <v>0.5765744032788447</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>70362</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57844</v>
+        <v>56132</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84475</v>
+        <v>83621</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4499764383963289</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3699228670070308</v>
+        <v>0.358971044932379</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5402267588701789</v>
+        <v>0.5347689687362228</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -3683,19 +3683,19 @@
         <v>39714</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31134</v>
+        <v>31118</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47798</v>
+        <v>47987</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6024541918514792</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4723040276527373</v>
+        <v>0.4720558903927041</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7250846325401558</v>
+        <v>0.7279524161965413</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>96</v>
@@ -3704,19 +3704,19 @@
         <v>110076</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>94039</v>
+        <v>94123</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>126143</v>
+        <v>125054</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4951937319077178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4230465434942364</v>
+        <v>0.4234255967211553</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5674734392088616</v>
+        <v>0.5625739449344779</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>24773</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16931</v>
+        <v>17360</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33379</v>
+        <v>32409</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4833401285939931</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3303336372836855</v>
+        <v>0.338707701814192</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6512482537984543</v>
+        <v>0.63232678751099</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -3829,19 +3829,19 @@
         <v>7507</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3029</v>
+        <v>3490</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12318</v>
+        <v>12369</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3950522900484069</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1593728920376614</v>
+        <v>0.1836511791255551</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6482379126586505</v>
+        <v>0.650920430471839</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -3850,19 +3850,19 @@
         <v>32280</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23858</v>
+        <v>23081</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42509</v>
+        <v>41132</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4594604971829427</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3395874398933944</v>
+        <v>0.3285249886172374</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6050461646719701</v>
+        <v>0.5854443861456761</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>26481</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17875</v>
+        <v>18845</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34323</v>
+        <v>33894</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5166598714060069</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3487517462015459</v>
+        <v>0.36767321248901</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6696663627163145</v>
+        <v>0.661292298185808</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -3900,19 +3900,19 @@
         <v>11496</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6685</v>
+        <v>6634</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15974</v>
+        <v>15513</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6049477099515931</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3517620873413497</v>
+        <v>0.349079569528161</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.840627107962339</v>
+        <v>0.8163488208744448</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -3921,19 +3921,19 @@
         <v>37977</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27748</v>
+        <v>29125</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>46399</v>
+        <v>47176</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5405395028170573</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3949538353280298</v>
+        <v>0.4145556138543239</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6604125601066055</v>
+        <v>0.6714750113827626</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>13192</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7794</v>
+        <v>7935</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18414</v>
+        <v>19202</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4876604741368297</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2881249159122858</v>
+        <v>0.293311153814837</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6806921406052828</v>
+        <v>0.7098097426907581</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4067,19 +4067,19 @@
         <v>14197</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7915</v>
+        <v>8246</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20326</v>
+        <v>20116</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4567799303485842</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.254669634411586</v>
+        <v>0.265306169163488</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6539823968579033</v>
+        <v>0.647229857460343</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>13860</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8638</v>
+        <v>7850</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19258</v>
+        <v>19117</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5123395258631703</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3193078593947174</v>
+        <v>0.2901902573092419</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7118750840877142</v>
+        <v>0.7066888461851629</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -4138,19 +4138,19 @@
         <v>16883</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10754</v>
+        <v>10964</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23165</v>
+        <v>22834</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5432200696514159</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3460176031420969</v>
+        <v>0.352770142539657</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.745330365588414</v>
+        <v>0.734693830836512</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>626595</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>591586</v>
+        <v>588685</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>666421</v>
+        <v>668591</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4634945261350615</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4375983314005255</v>
+        <v>0.4354526861293562</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4929542421415309</v>
+        <v>0.494559689594695</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>455</v>
@@ -4263,19 +4263,19 @@
         <v>496158</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>464266</v>
+        <v>465947</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>529072</v>
+        <v>531977</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5119281014416561</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.479022985276682</v>
+        <v>0.480757613417101</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.545888377354917</v>
+        <v>0.5488859933719186</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1030</v>
@@ -4284,19 +4284,19 @@
         <v>1122752</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1074246</v>
+        <v>1072021</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1167363</v>
+        <v>1174148</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4837184835017219</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4628205325941617</v>
+        <v>0.4618616833192177</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5029384449379944</v>
+        <v>0.5058615954984572</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>725297</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>685471</v>
+        <v>683301</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>760306</v>
+        <v>763207</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5365054738649384</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5070457578584691</v>
+        <v>0.505440310405305</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5624016685994746</v>
+        <v>0.5645473138706431</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>438</v>
@@ -4334,19 +4334,19 @@
         <v>473036</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>440122</v>
+        <v>437217</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>504928</v>
+        <v>503247</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4880718985583439</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4541116226450831</v>
+        <v>0.4511140066280815</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5209770147233181</v>
+        <v>0.5192423865828995</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1130</v>
@@ -4355,19 +4355,19 @@
         <v>1198334</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1153723</v>
+        <v>1146938</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1246840</v>
+        <v>1249065</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5162815164982781</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4970615550620055</v>
+        <v>0.4941384045015428</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5371794674058382</v>
+        <v>0.5381383166807823</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>39062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28269</v>
+        <v>27142</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50831</v>
+        <v>50124</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2745002573960286</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1986564545620712</v>
+        <v>0.1907334095829091</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3572026046467758</v>
+        <v>0.3522345767254175</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -4723,19 +4723,19 @@
         <v>35181</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25971</v>
+        <v>25630</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44517</v>
+        <v>44493</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3336348580154264</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2462930566402126</v>
+        <v>0.2430564801618064</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4221720221002622</v>
+        <v>0.4219425307553075</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -4744,19 +4744,19 @@
         <v>74242</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59773</v>
+        <v>59437</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89934</v>
+        <v>89967</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2996690976405893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2412638204081194</v>
+        <v>0.2399074501831998</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3630068644093593</v>
+        <v>0.3631379310148662</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>103240</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91471</v>
+        <v>92178</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>114033</v>
+        <v>115160</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7254997426039714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6427973953532243</v>
+        <v>0.6477654232745825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.801343545437929</v>
+        <v>0.8092665904170907</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>72</v>
@@ -4794,19 +4794,19 @@
         <v>70266</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60930</v>
+        <v>60954</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79476</v>
+        <v>79817</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6663651419845736</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5778279778997377</v>
+        <v>0.5780574692446928</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7537069433597874</v>
+        <v>0.7569435198381937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>168</v>
@@ -4815,19 +4815,19 @@
         <v>173506</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>157814</v>
+        <v>157781</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>187975</v>
+        <v>188311</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7003309023594106</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6369931355906409</v>
+        <v>0.6368620689851338</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7587361795918807</v>
+        <v>0.7600925498168004</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>98275</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>83320</v>
+        <v>82972</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114171</v>
+        <v>114579</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.37641470193872</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3191319970233765</v>
+        <v>0.3177996419588711</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4373012268590733</v>
+        <v>0.4388612170720007</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -4940,19 +4940,19 @@
         <v>88323</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74239</v>
+        <v>74705</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102906</v>
+        <v>102206</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4146024570453519</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3484890539847731</v>
+        <v>0.3506777229951786</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4830567668474111</v>
+        <v>0.4797707896035961</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>186</v>
@@ -4961,19 +4961,19 @@
         <v>186598</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>165497</v>
+        <v>164835</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>208796</v>
+        <v>206526</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3935734091175697</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.349065554204963</v>
+        <v>0.3476704405448181</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.440393680136866</v>
+        <v>0.4356055866026219</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>162807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>146911</v>
+        <v>146503</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>177762</v>
+        <v>178110</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.62358529806128</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5626987731409269</v>
+        <v>0.561138782928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6808680029766235</v>
+        <v>0.6822003580411294</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>128</v>
@@ -5011,19 +5011,19 @@
         <v>124708</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>110125</v>
+        <v>110825</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>138792</v>
+        <v>138326</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5853975429546481</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5169432331525889</v>
+        <v>0.5202292103964039</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6515109460152269</v>
+        <v>0.6493222770048214</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>282</v>
@@ -5032,19 +5032,19 @@
         <v>287515</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>265317</v>
+        <v>267587</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>308616</v>
+        <v>309278</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6064265908824303</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5596063198631346</v>
+        <v>0.5643944133973782</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6509344457950371</v>
+        <v>0.6523295594551829</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>126058</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110797</v>
+        <v>109277</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143361</v>
+        <v>142331</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4738616898322932</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4164946086570665</v>
+        <v>0.4107793391355871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5389060689829719</v>
+        <v>0.5350319803313496</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -5157,19 +5157,19 @@
         <v>92123</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77831</v>
+        <v>77744</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106449</v>
+        <v>107581</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4177074577376545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3529061071681406</v>
+        <v>0.3525105648680018</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.482666014890658</v>
+        <v>0.4877968026410759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>213</v>
@@ -5178,19 +5178,19 @@
         <v>218181</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>198689</v>
+        <v>196780</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>241953</v>
+        <v>240548</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4484089587201123</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4083480668064692</v>
+        <v>0.4044251613077708</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4972653580357679</v>
+        <v>0.4943783937822911</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>139965</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>122662</v>
+        <v>123692</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>155226</v>
+        <v>156746</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5261383101677068</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4610939310170279</v>
+        <v>0.4649680196686503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5835053913429334</v>
+        <v>0.5892206608644127</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>129</v>
@@ -5228,19 +5228,19 @@
         <v>128421</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>114095</v>
+        <v>112963</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142713</v>
+        <v>142800</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5822925422623455</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5173339851093418</v>
+        <v>0.5122031973589241</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6470938928318591</v>
+        <v>0.6474894351319982</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>264</v>
@@ -5249,19 +5249,19 @@
         <v>268386</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>244614</v>
+        <v>246019</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>287878</v>
+        <v>289787</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5515910412798877</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5027346419642321</v>
+        <v>0.5056216062177088</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5916519331935307</v>
+        <v>0.5955748386922292</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>119010</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99478</v>
+        <v>103196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>135538</v>
+        <v>136653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4284056651926406</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3580960854081044</v>
+        <v>0.3714784452433433</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4878997146288782</v>
+        <v>0.491913729466922</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -5374,19 +5374,19 @@
         <v>118006</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101456</v>
+        <v>101873</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>135124</v>
+        <v>132498</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5112268041986505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4395280784461296</v>
+        <v>0.4413351778052825</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.585387144687229</v>
+        <v>0.5740075212229864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>216</v>
@@ -5395,19 +5395,19 @@
         <v>237016</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>213860</v>
+        <v>210894</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>262534</v>
+        <v>261513</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4659921563221509</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4204660955885393</v>
+        <v>0.4146342366683274</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5161621955183587</v>
+        <v>0.5141542312227277</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>158788</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>142260</v>
+        <v>141145</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>178320</v>
+        <v>174602</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5715943348073593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5121002853711218</v>
+        <v>0.5080862705330782</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6419039145918957</v>
+        <v>0.6285215547566567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -5445,19 +5445,19 @@
         <v>112823</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>95705</v>
+        <v>98331</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129373</v>
+        <v>128956</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4887731958013495</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4146128553127708</v>
+        <v>0.4259924787770136</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5604719215538703</v>
+        <v>0.5586648221947175</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>241</v>
@@ -5466,19 +5466,19 @@
         <v>271611</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>246093</v>
+        <v>247114</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>294767</v>
+        <v>297733</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5340078436778491</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4838378044816413</v>
+        <v>0.4858457687772725</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5795339044114608</v>
+        <v>0.5853657633316728</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>81475</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67976</v>
+        <v>68477</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93703</v>
+        <v>95296</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5548701213357078</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4629369222605565</v>
+        <v>0.4663482826926577</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6381463224912489</v>
+        <v>0.6489983486796165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -5591,19 +5591,19 @@
         <v>56202</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44143</v>
+        <v>44854</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66889</v>
+        <v>67051</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4926261535440413</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3869242399275526</v>
+        <v>0.3931555188742119</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5863016456451414</v>
+        <v>0.5877168034735858</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>119</v>
@@ -5612,19 +5612,19 @@
         <v>137678</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>121451</v>
+        <v>121569</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155678</v>
+        <v>153920</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.527654312452994</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4654659207277896</v>
+        <v>0.4659187171756669</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5966421283858657</v>
+        <v>0.5899021708697214</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>65361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53133</v>
+        <v>51540</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78860</v>
+        <v>78359</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4451298786642922</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3618536775087511</v>
+        <v>0.3510016513203835</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5370630777394433</v>
+        <v>0.5336517173073423</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -5662,19 +5662,19 @@
         <v>57885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47198</v>
+        <v>47036</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69944</v>
+        <v>69233</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5073738464559587</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4136983543548586</v>
+        <v>0.4122831965264143</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6130757600724471</v>
+        <v>0.6068444811257881</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>109</v>
@@ -5683,19 +5683,19 @@
         <v>123246</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>105246</v>
+        <v>107004</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>139473</v>
+        <v>139355</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4723456875470061</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4033578716141343</v>
+        <v>0.4100978291302786</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5345340792722103</v>
+        <v>0.5340812828243332</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>28817</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21143</v>
+        <v>21109</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37060</v>
+        <v>36241</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4948665126293768</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3630764838316073</v>
+        <v>0.3625035591829061</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6364152881501587</v>
+        <v>0.6223535392496136</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -5808,19 +5808,19 @@
         <v>14060</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8808</v>
+        <v>8170</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20520</v>
+        <v>20173</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4682531833468272</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2933406004468271</v>
+        <v>0.2720774510087072</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6833893397402471</v>
+        <v>0.6718201860517989</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -5829,19 +5829,19 @@
         <v>42877</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33957</v>
+        <v>33504</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52974</v>
+        <v>52284</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.485812156162664</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3847460358374772</v>
+        <v>0.3796125621129496</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6002090597994347</v>
+        <v>0.5923921768957097</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>29415</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21172</v>
+        <v>21991</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37089</v>
+        <v>37123</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5051334873706232</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3635847118498413</v>
+        <v>0.377646460750386</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6369235161683927</v>
+        <v>0.6374964408170939</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -5879,19 +5879,19 @@
         <v>15967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9507</v>
+        <v>9854</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21219</v>
+        <v>21857</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5317468166531728</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3166106602597529</v>
+        <v>0.3281798139482009</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7066593995531728</v>
+        <v>0.7279225489912928</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>42</v>
@@ -5900,19 +5900,19 @@
         <v>45382</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35285</v>
+        <v>35975</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54302</v>
+        <v>54755</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.514187843837336</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3997909402005653</v>
+        <v>0.4076078231042897</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6152539641625228</v>
+        <v>0.6203874378870504</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>12421</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7557</v>
+        <v>8399</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16525</v>
+        <v>17279</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5205218909208739</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3166745540569818</v>
+        <v>0.351980671490082</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6924968934976826</v>
+        <v>0.7241006539047051</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -6025,7 +6025,7 @@
         <v>5513</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2798</v>
+        <v>1486</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>8014</v>
@@ -6034,7 +6034,7 @@
         <v>0.6879438962213223</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3491866688955444</v>
+        <v>0.1854549806166403</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -6046,19 +6046,19 @@
         <v>17934</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12818</v>
+        <v>12079</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23510</v>
+        <v>22863</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5626119451318201</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.402123738765334</v>
+        <v>0.3789304021504803</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7375375760977706</v>
+        <v>0.7172317758360227</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>11442</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7338</v>
+        <v>6584</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16306</v>
+        <v>15464</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4794781090791262</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3075031065023174</v>
+        <v>0.2758993460952949</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6833254459430183</v>
+        <v>0.6480193285099184</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5216</v>
+        <v>6528</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3120561037786777</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6508133311044556</v>
+        <v>0.8145450193833598</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -6117,19 +6117,19 @@
         <v>13943</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8367</v>
+        <v>9014</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19059</v>
+        <v>19798</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4373880548681799</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2624624239022294</v>
+        <v>0.2827682241639772</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5978762612346656</v>
+        <v>0.6210695978495198</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>505119</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>470059</v>
+        <v>471222</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>540516</v>
+        <v>541371</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4294729834921249</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3996632121177835</v>
+        <v>0.400652646948449</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4595690438990279</v>
+        <v>0.4602959068040458</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>395</v>
@@ -6242,19 +6242,19 @@
         <v>409409</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>377391</v>
+        <v>378497</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>440186</v>
+        <v>439121</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.444054082612383</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4093270889620211</v>
+        <v>0.4105270849277842</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4774363628215558</v>
+        <v>0.4762806211480431</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>865</v>
@@ -6263,19 +6263,19 @@
         <v>914528</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>872795</v>
+        <v>869834</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>964423</v>
+        <v>962106</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4358803808928052</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4159899018562353</v>
+        <v>0.4145786846894868</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4596614709656472</v>
+        <v>0.4585571734635802</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>671018</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>635621</v>
+        <v>634766</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>706078</v>
+        <v>704915</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5705270165078751</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5404309561009721</v>
+        <v>0.539704093195954</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6003367878822164</v>
+        <v>0.599347353051551</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>498</v>
@@ -6313,19 +6313,19 @@
         <v>512570</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>481793</v>
+        <v>482858</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>544588</v>
+        <v>543482</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5559459173876169</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5225636371784441</v>
+        <v>0.5237193788519571</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5906729110379787</v>
+        <v>0.5894729150722159</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1122</v>
@@ -6334,19 +6334,19 @@
         <v>1183588</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1133693</v>
+        <v>1136010</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1225321</v>
+        <v>1228282</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5641196191071949</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5403385290343528</v>
+        <v>0.5414428265364197</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5840100981437647</v>
+        <v>0.5854213153105132</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>20851</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10339</v>
+        <v>9159</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36162</v>
+        <v>36932</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2326703090138789</v>
+        <v>0.2326703090138788</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1153632932011354</v>
+        <v>0.1022063982476025</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4035169962576439</v>
+        <v>0.4121094603117368</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -6702,19 +6702,19 @@
         <v>19235</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9374</v>
+        <v>9500</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31042</v>
+        <v>30672</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2803833579069149</v>
+        <v>0.280383357906915</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1366494896073106</v>
+        <v>0.1384746639648381</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4525043221083945</v>
+        <v>0.4471108745720241</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -6723,19 +6723,19 @@
         <v>40086</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23277</v>
+        <v>24155</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57835</v>
+        <v>59220</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2533578611591473</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1471222960278744</v>
+        <v>0.1526708930974702</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3655418407741751</v>
+        <v>0.3742961258434579</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>68766</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53455</v>
+        <v>52685</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79278</v>
+        <v>80458</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7673296909861212</v>
+        <v>0.767329690986121</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5964830037423561</v>
+        <v>0.5878905396882634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.884636706798865</v>
+        <v>0.8977936017523976</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -6773,19 +6773,19 @@
         <v>49366</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37559</v>
+        <v>37929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59227</v>
+        <v>59101</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.719616642093085</v>
+        <v>0.7196166420930848</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5474956778916052</v>
+        <v>0.5528891254279754</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8633505103926895</v>
+        <v>0.8615253360351612</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -6794,19 +6794,19 @@
         <v>118132</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>100383</v>
+        <v>98998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>134941</v>
+        <v>134063</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7466421388408526</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.634458159225825</v>
+        <v>0.6257038741565421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8528777039721256</v>
+        <v>0.8473291069025297</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>39902</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28358</v>
+        <v>25776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55355</v>
+        <v>56933</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2468949813745046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1754620724009165</v>
+        <v>0.1594911166843264</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3425082816715275</v>
+        <v>0.3522695812051055</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -6919,19 +6919,19 @@
         <v>43064</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33018</v>
+        <v>33068</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54756</v>
+        <v>55237</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3561304884934834</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2730458350258971</v>
+        <v>0.2734625840396435</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4528204140936907</v>
+        <v>0.456791647582465</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -6940,19 +6940,19 @@
         <v>82967</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64171</v>
+        <v>65769</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101912</v>
+        <v>101983</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2936463116478689</v>
+        <v>0.2936463116478688</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2271219009342576</v>
+        <v>0.2327774623656495</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3606999232608462</v>
+        <v>0.3609512521188818</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>121715</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>106262</v>
+        <v>104684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>133259</v>
+        <v>135841</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7531050186254956</v>
+        <v>0.7531050186254955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6574917183284729</v>
+        <v>0.6477304187948946</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8245379275990837</v>
+        <v>0.8405088833156739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -6990,19 +6990,19 @@
         <v>77859</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66167</v>
+        <v>65686</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>87905</v>
+        <v>87855</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6438695115065166</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5471795859063093</v>
+        <v>0.5432083524175348</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7269541649741028</v>
+        <v>0.7265374159603566</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>153</v>
@@ -7011,19 +7011,19 @@
         <v>199573</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>180628</v>
+        <v>180557</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>218369</v>
+        <v>216771</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7063536883521312</v>
+        <v>0.7063536883521311</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.639300076739154</v>
+        <v>0.6390487478811181</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7728780990657425</v>
+        <v>0.7672225376343504</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>62257</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48435</v>
+        <v>50137</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75896</v>
+        <v>76186</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3698137255166257</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2877063021259641</v>
+        <v>0.2978188276915118</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4508277524654916</v>
+        <v>0.4525501698419007</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -7136,19 +7136,19 @@
         <v>66708</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56379</v>
+        <v>56149</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77498</v>
+        <v>76581</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4587035250329496</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3876763511447262</v>
+        <v>0.3860992608200561</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5328967256409798</v>
+        <v>0.5265960648172241</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -7157,19 +7157,19 @@
         <v>128966</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113001</v>
+        <v>112169</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145470</v>
+        <v>145650</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4110119644319074</v>
+        <v>0.4110119644319073</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3601325808499963</v>
+        <v>0.3574824267884528</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4636112227966809</v>
+        <v>0.464184420212146</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>106091</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92452</v>
+        <v>92162</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>119913</v>
+        <v>118211</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6301862744833744</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5491722475345084</v>
+        <v>0.5474498301580991</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7122936978740358</v>
+        <v>0.7021811723084882</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>106</v>
@@ -7207,19 +7207,19 @@
         <v>78719</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>67929</v>
+        <v>68846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>89048</v>
+        <v>89278</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5412964749670502</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4671032743590202</v>
+        <v>0.4734039351827758</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6123236488552738</v>
+        <v>0.6139007391799438</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>203</v>
@@ -7228,19 +7228,19 @@
         <v>184810</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>168306</v>
+        <v>168126</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>200775</v>
+        <v>201607</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5889880355680928</v>
+        <v>0.5889880355680926</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.536388777203319</v>
+        <v>0.535815579787854</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6398674191500037</v>
+        <v>0.6425175732115471</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>75557</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61698</v>
+        <v>62503</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90055</v>
+        <v>90985</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3868331668531937</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.315880032048678</v>
+        <v>0.3200034412864511</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4610633604930955</v>
+        <v>0.4658248723500819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -7353,19 +7353,19 @@
         <v>82673</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72423</v>
+        <v>72498</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93459</v>
+        <v>93390</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4797497703473488</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4202671124943996</v>
+        <v>0.4207047581707331</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5423404476794159</v>
+        <v>0.5419414845002298</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>196</v>
@@ -7374,19 +7374,19 @@
         <v>158230</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141075</v>
+        <v>140263</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>176621</v>
+        <v>176993</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4303855673970415</v>
+        <v>0.4303855673970416</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3837250244913209</v>
+        <v>0.3815151666801459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4804100781172884</v>
+        <v>0.4814221451577695</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>119764</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>105266</v>
+        <v>104336</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>133623</v>
+        <v>132818</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6131668331468063</v>
+        <v>0.6131668331468062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5389366395069045</v>
+        <v>0.534175127649918</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.684119967951322</v>
+        <v>0.6799965587135487</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>145</v>
@@ -7424,19 +7424,19 @@
         <v>89652</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78866</v>
+        <v>78935</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>99902</v>
+        <v>99827</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5202502296526511</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.457659552320584</v>
+        <v>0.4580585154997706</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5797328875056004</v>
+        <v>0.5792952418292668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>260</v>
@@ -7445,19 +7445,19 @@
         <v>209416</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>191025</v>
+        <v>190653</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>226571</v>
+        <v>227383</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5696144326029584</v>
+        <v>0.5696144326029585</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5195899218827117</v>
+        <v>0.5185778548422304</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.616274975508679</v>
+        <v>0.6184848333198539</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>78328</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66429</v>
+        <v>65501</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91543</v>
+        <v>92591</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4227575300715372</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3585342842495964</v>
+        <v>0.3535289778966609</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4940819669819983</v>
+        <v>0.4997360164356895</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>107</v>
@@ -7570,19 +7570,19 @@
         <v>68736</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59659</v>
+        <v>59606</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77724</v>
+        <v>77421</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5194377378846941</v>
+        <v>0.5194377378846942</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4508436204362597</v>
+        <v>0.4504395949636067</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.587357697544329</v>
+        <v>0.5850707568230363</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>189</v>
@@ -7591,19 +7591,19 @@
         <v>147065</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130867</v>
+        <v>130712</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>162430</v>
+        <v>163838</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4630384243650768</v>
+        <v>0.4630384243650769</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4120408639838197</v>
+        <v>0.4115513947266066</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.511415972450675</v>
+        <v>0.515848605306849</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>106951</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>93736</v>
+        <v>92688</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>118850</v>
+        <v>119778</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5772424699284627</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5059180330180016</v>
+        <v>0.5002639835643106</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6414657157504036</v>
+        <v>0.6464710221033392</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -7641,19 +7641,19 @@
         <v>63592</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>54604</v>
+        <v>54907</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>72669</v>
+        <v>72722</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4805622621153058</v>
+        <v>0.480562262115306</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4126423024556711</v>
+        <v>0.4149292431769637</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5491563795637402</v>
+        <v>0.5495604050363935</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>227</v>
@@ -7662,19 +7662,19 @@
         <v>170543</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>155178</v>
+        <v>153770</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>186741</v>
+        <v>186896</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.536961575634923</v>
+        <v>0.5369615756349232</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4885840275493248</v>
+        <v>0.4841513946931511</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5879591360161803</v>
+        <v>0.5884486052733934</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>36567</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29447</v>
+        <v>29504</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43617</v>
+        <v>43805</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4942580197484797</v>
+        <v>0.4942580197484796</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3980199174388358</v>
+        <v>0.3987888320991229</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5895513446490662</v>
+        <v>0.5920923924169719</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -7787,19 +7787,19 @@
         <v>24216</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19032</v>
+        <v>18798</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29890</v>
+        <v>29665</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4438089111593758</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3488009288269757</v>
+        <v>0.344520504524656</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5478083224145773</v>
+        <v>0.5436859899197356</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -7808,19 +7808,19 @@
         <v>60782</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50881</v>
+        <v>52052</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69411</v>
+        <v>69337</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4728442893689426</v>
+        <v>0.4728442893689425</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3958182429822661</v>
+        <v>0.4049274605158334</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5399718533829053</v>
+        <v>0.5393979303306361</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>37416</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30366</v>
+        <v>30178</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44536</v>
+        <v>44479</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5057419802515204</v>
+        <v>0.5057419802515203</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4104486553509337</v>
+        <v>0.4079076075830285</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6019800825611636</v>
+        <v>0.6012111679008774</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -7858,19 +7858,19 @@
         <v>30347</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24673</v>
+        <v>24898</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35531</v>
+        <v>35765</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5561910888406243</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4521916775854226</v>
+        <v>0.4563140100802643</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6511990711730243</v>
+        <v>0.6554794954753437</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>109</v>
@@ -7879,19 +7879,19 @@
         <v>67764</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>59135</v>
+        <v>59209</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>77665</v>
+        <v>76494</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5271557106310576</v>
+        <v>0.5271557106310575</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4600281466170951</v>
+        <v>0.460602069669364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6041817570177341</v>
+        <v>0.5950725394841668</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>6369</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3063</v>
+        <v>3598</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9939</v>
+        <v>10286</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3153701032711624</v>
+        <v>0.3153701032711625</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1516888700113784</v>
+        <v>0.1781597317535701</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4921413516064881</v>
+        <v>0.5093455767585364</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -8004,19 +8004,19 @@
         <v>2399</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>751</v>
+        <v>631</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4692</v>
+        <v>4478</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3539951500781353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1107590066194798</v>
+        <v>0.09310629199938164</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6922506518057348</v>
+        <v>0.6606029386649978</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -8025,19 +8025,19 @@
         <v>8768</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5417</v>
+        <v>4979</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13298</v>
+        <v>12751</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3250758944132756</v>
+        <v>0.3250758944132755</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2008342755219124</v>
+        <v>0.1845881585489973</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4930399013190844</v>
+        <v>0.4727593364235029</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>13826</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10256</v>
+        <v>9909</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17132</v>
+        <v>16597</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6846298967288376</v>
+        <v>0.6846298967288377</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5078586483935118</v>
+        <v>0.4906544232414634</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8483111299886217</v>
+        <v>0.82184026824643</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -8075,19 +8075,19 @@
         <v>4379</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2086</v>
+        <v>2300</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6027</v>
+        <v>6147</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6460048499218647</v>
+        <v>0.6460048499218648</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.307749348194266</v>
+        <v>0.3393970613350022</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8892409933805218</v>
+        <v>0.9068937080006183</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>28</v>
@@ -8096,19 +8096,19 @@
         <v>18204</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>13674</v>
+        <v>14221</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21555</v>
+        <v>21993</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6749241055867246</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5069600986809149</v>
+        <v>0.5272406635764972</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7991657244780875</v>
+        <v>0.8154118414510027</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>319831</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>286863</v>
+        <v>286271</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>352600</v>
+        <v>348104</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3576092723526599</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3207465042591486</v>
+        <v>0.3200846263691415</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3942483251732706</v>
+        <v>0.3892210022409142</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>419</v>
@@ -8221,19 +8221,19 @@
         <v>307031</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>285206</v>
+        <v>281461</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>331147</v>
+        <v>330202</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4380242229058431</v>
+        <v>0.438024222905843</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4068875612194174</v>
+        <v>0.4015457525343309</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4724288256389557</v>
+        <v>0.4710805821773825</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>714</v>
@@ -8242,19 +8242,19 @@
         <v>626863</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>584155</v>
+        <v>590905</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>666824</v>
+        <v>668897</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3929419802230763</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3661708958803392</v>
+        <v>0.3704022424972979</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4179911993741403</v>
+        <v>0.419290997686679</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>574529</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>541760</v>
+        <v>546256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>607497</v>
+        <v>608089</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6423907276473401</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6057516748267295</v>
+        <v>0.610778997759086</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6792534957408516</v>
+        <v>0.6799153736308585</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>525</v>
@@ -8292,19 +8292,19 @@
         <v>393914</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>369798</v>
+        <v>370743</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>415739</v>
+        <v>419484</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.561975777094157</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5275711743610434</v>
+        <v>0.5289194178226175</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.593112438780582</v>
+        <v>0.5984542474656689</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1037</v>
@@ -8313,19 +8313,19 @@
         <v>968443</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>928482</v>
+        <v>926409</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1011151</v>
+        <v>1004401</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6070580197769239</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5820088006258597</v>
+        <v>0.580709002313321</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6338291041196609</v>
+        <v>0.6295977575027022</v>
       </c>
     </row>
     <row r="27">
